--- a/Cuentas 2.xlsx
+++ b/Cuentas 2.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\test\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\test2\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C49AC3-4C8C-4BC6-808E-E066EEE9D0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B11B2C-F830-4AA3-8D10-691F247B04FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -882,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -966,4 +967,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A0D0C8-DD8F-42EA-8367-6114F900F03A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>